--- a/medicine/Psychotrope/Benromach/Benromach.xlsx
+++ b/medicine/Psychotrope/Benromach/Benromach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Benromach est une distillerie de whisky située dans le Speyside en Écosse. Elle a été fondée par Duncan McCallum et F.W. Brickman en 1898, propriété de Gordon &amp; Macphail, embouteilleur indépendant basé à Elgin. La distillerie est basée à proximité de Forres dans le Moray et tire son eau de la source Chapelton qui descend des Romach Hills.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Duncan MacCallum et F.W. Brickmann fondent la distillerie Benromach en 1898. Duncan MacCallum était auparavant employé à la distillerie Ben Nevis à Campbeltown et FW Brickmann était détaillant en spiritueux à Leith à Édimbourg.
 Même si la construction de la distillerie date de 1898, la production ne commença qu’en 1900 à cause de la crise du whisky que traversait l'Écosse ces années là. La distillerie ferma même en 1901 pour raisons financières.
